--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1163.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1163.xlsx
@@ -360,7 +360,7 @@
         <v>2.87753135424892</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1163.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1163.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080625875966126</v>
+        <v>1.166417956352234</v>
       </c>
       <c r="B1">
-        <v>1.224982177226236</v>
+        <v>2.429310321807861</v>
       </c>
       <c r="C1">
-        <v>1.502460217792017</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.87753135424892</v>
+        <v>2.370743751525879</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>1.234593987464905</v>
       </c>
     </row>
   </sheetData>
